--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.240817313749077E-08</v>
+        <v>3.236075771603351E-08</v>
       </c>
       <c r="E2">
-        <v>3.240817313749077E-08</v>
+        <v>3.236075771603351E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999999846531832</v>
+        <v>0.9999998467278153</v>
       </c>
       <c r="E3">
-        <v>0.999999846531832</v>
+        <v>0.9999998467278153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.005968484692693701</v>
+        <v>0.005966157138455723</v>
       </c>
       <c r="E4">
-        <v>0.005968484692693701</v>
+        <v>0.005966157138455723</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001200232016142608</v>
+        <v>0.0001203705641323416</v>
       </c>
       <c r="E5">
-        <v>0.0001200232016142608</v>
+        <v>0.0001203705641323416</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1211021401922724</v>
+        <v>0.1211498380866866</v>
       </c>
       <c r="E6">
-        <v>0.1211021401922724</v>
+        <v>0.1211498380866866</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9827737357558398</v>
+        <v>0.5507538472793829</v>
       </c>
       <c r="E7">
-        <v>0.01722626424416018</v>
+        <v>0.4492461527206171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9829592055800278</v>
+        <v>0.999999262505412</v>
       </c>
       <c r="E8">
-        <v>0.01704079441997219</v>
+        <v>7.374945879545791E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9957350393280731</v>
+        <v>0.9580982088655523</v>
       </c>
       <c r="E9">
-        <v>0.004264960671926943</v>
+        <v>0.0419017911344477</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9828116980871661</v>
+        <v>0.9994948369111974</v>
       </c>
       <c r="E10">
-        <v>0.01718830191283394</v>
+        <v>0.0005051630888025516</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9920890636128352</v>
+        <v>3.980581445873468E-11</v>
       </c>
       <c r="E11">
-        <v>0.00791093638716478</v>
+        <v>0.9999999999601942</v>
       </c>
       <c r="F11">
-        <v>1.588908314704895</v>
+        <v>4.041307926177979</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>4.251594280789091E-13</v>
+        <v>3.973903236973213E-13</v>
       </c>
       <c r="E12">
-        <v>4.251594280789091E-13</v>
+        <v>3.973903236973213E-13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999999957834</v>
+        <v>0.9999999999965046</v>
       </c>
       <c r="E13">
-        <v>0.9999999999957834</v>
+        <v>0.9999999999965046</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.00048841493720455</v>
+        <v>0.0004844675398954387</v>
       </c>
       <c r="E14">
-        <v>0.00048841493720455</v>
+        <v>0.0004844675398954387</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.025104541706516E-05</v>
+        <v>1.038211105392742E-05</v>
       </c>
       <c r="E15">
-        <v>1.025104541706516E-05</v>
+        <v>1.038211105392742E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.08206061441965068</v>
+        <v>0.08343829025094397</v>
       </c>
       <c r="E16">
-        <v>0.08206061441965068</v>
+        <v>0.08343829025094397</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9999986707975421</v>
+        <v>0.4610201573135929</v>
       </c>
       <c r="E17">
-        <v>1.329202457878154E-06</v>
+        <v>0.5389798426864071</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999984063287186</v>
+        <v>0.999999995579286</v>
       </c>
       <c r="E18">
-        <v>1.593671281385767E-06</v>
+        <v>4.420714017072669E-09</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999998484536713</v>
+        <v>0.9969776422140343</v>
       </c>
       <c r="E19">
-        <v>1.515463287082852E-07</v>
+        <v>0.003022357785965712</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9999983425140754</v>
+        <v>1.597667204035653E-16</v>
       </c>
       <c r="E20">
-        <v>1.657485924622115E-06</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9999997548728642</v>
+        <v>3.920272621252376E-16</v>
       </c>
       <c r="E21">
-        <v>2.451271358117069E-07</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F21">
-        <v>2.627810478210449</v>
+        <v>9.909256935119629</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
